--- a/docs/dev/plans/Gantt.xlsx
+++ b/docs/dev/plans/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605D2F3-73FF-4C68-BB3D-E0E293A0048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522EE417-9360-423D-A5C4-CC38747E93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="4755" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="4080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektisuunnitelma" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +524,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -566,6 +563,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
@@ -574,33 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1012,8 +1009,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1028,124 +1025,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
+        <v>53</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1332,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1352,17 +1349,17 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -1387,9 +1384,15 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7">
+        <v>49</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
@@ -1397,9 +1400,15 @@
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7">
+        <v>49</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
@@ -1407,9 +1416,15 @@
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7">
+        <v>49</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
@@ -1417,9 +1432,15 @@
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7">
+        <v>49</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
@@ -1427,9 +1448,15 @@
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="7">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7">
+        <v>49</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
@@ -1437,9 +1464,15 @@
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7">
+        <v>49</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
@@ -1447,9 +1480,15 @@
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="7">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>48</v>
+      </c>
+      <c r="E14" s="7">
+        <v>49</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
@@ -1457,9 +1496,15 @@
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7">
+        <v>49</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
@@ -1467,9 +1512,15 @@
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7">
+        <v>49</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
@@ -1493,9 +1544,15 @@
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="7">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7">
+        <v>49</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
@@ -1503,9 +1560,15 @@
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="7">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7">
+        <v>49</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
@@ -1513,9 +1576,15 @@
       <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="7">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7">
+        <v>48</v>
+      </c>
+      <c r="E21" s="7">
+        <v>49</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
@@ -1523,9 +1592,15 @@
       <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="7">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7">
+        <v>49</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
@@ -1533,9 +1608,15 @@
       <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="7">
+        <v>48</v>
+      </c>
+      <c r="D23" s="7">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7">
+        <v>49</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
@@ -1597,17 +1678,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AK2:AR2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
